--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287964.694717134</v>
+        <v>1288748.840655162</v>
       </c>
     </row>
     <row r="7">
@@ -656,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0201173812374</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>75.03923572932271</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>152.935026025192</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>136.9013455552335</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>32.85051049726506</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>200.4360805987202</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>136.9013455552337</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>90.15235188423087</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>157.5289022712338</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>67.40972515104127</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,49 +1624,49 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>78.52620343795996</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,13 +1940,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="19">
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>14.32130452463231</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>111.1939927714464</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>200.3360962888296</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>72.39544442095786</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>104.2801141926743</v>
       </c>
     </row>
     <row r="28">
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>118.4725791782777</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,70 +2949,70 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>92.63320653133748</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>7.970571721932049</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.18582309281558</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>79.73605578874087</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,73 +3502,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>19.7279353865638</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>124.5711859659953</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>49.23925438949311</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.75543250779076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.64939492479352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3977,10 +3979,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.967398110280146</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>639.2227743377304</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>206.3619036076655</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>92.99276801524483</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4413,19 +4415,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M3" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N3" t="n">
-        <v>626.8294255367553</v>
-      </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>393.0046794888054</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>393.0046794888054</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y3" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
+        <v>251.5625096843836</v>
+      </c>
+      <c r="G5" t="n">
         <v>236.1051990630351</v>
       </c>
-      <c r="G5" t="n">
-        <v>28.51141680214578</v>
-      </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4598,19 +4600,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
         <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>466.1017926944764</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.09272902505</v>
+        <v>451.3953532595989</v>
       </c>
       <c r="C6" t="n">
-        <v>345.09272902505</v>
+        <v>451.3953532595989</v>
       </c>
       <c r="D6" t="n">
-        <v>196.1583193637987</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="E6" t="n">
-        <v>196.1583193637987</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F6" t="n">
-        <v>49.62376139068371</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G6" t="n">
-        <v>49.62376139068371</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N6" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N6" t="n">
-        <v>549.2141532458947</v>
-      </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>619.6106902796669</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.308066045118</v>
+        <v>619.6106902796669</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C8" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D8" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
         <v>28.51141680214578</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4826,28 +4828,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X8" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.0030327087026</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>359.5951503604969</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C9" t="n">
-        <v>359.5951503604969</v>
+        <v>345.09272902505</v>
       </c>
       <c r="D9" t="n">
-        <v>359.5951503604969</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5951503604969</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4887,19 +4889,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>359.5951503604969</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.5951503604969</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5042,16 +5044,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W11" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X11" t="n">
-        <v>224.0352098159517</v>
-      </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>753.9807462874234</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>372.969619477203</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>372.969619477203</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5287,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>265.9785117033614</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>265.9785117033614</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>106.7410566979059</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7410566979059</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,10 +5363,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
         <v>435.9652341458732</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>265.9785117033614</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5497,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>577.1531170985884</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="C21" t="n">
-        <v>577.1531170985884</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>577.1531170985884</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>577.1531170985884</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>577.1531170985884</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>577.1531170985884</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>577.1531170985884</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y21" t="n">
-        <v>577.1531170985884</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6169,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6206,10 +6208,10 @@
         <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.1033079837604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>890.9304439743152</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>683.0789437687823</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>475.3186450038284</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>284.1276524520142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>284.1276524520142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>138.9504150074629</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,7 +6548,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
         <v>486.8488635328713</v>
@@ -6570,22 +6572,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="31">
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.8382100532927</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C33" t="n">
-        <v>352.8382100532927</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D33" t="n">
-        <v>203.9038003920414</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E33" t="n">
-        <v>203.9038003920414</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F33" t="n">
-        <v>203.9038003920414</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>203.9038003920414</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>479.2326043255507</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>479.2326043255507</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>479.2326043255507</v>
       </c>
       <c r="X33" t="n">
-        <v>521.0535470733607</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.0535470733607</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>56.84258057770322</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,10 +7019,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
         <v>304.2053859195205</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9752190668252</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>273.4406610937102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7500,7 +7502,7 @@
         <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>768.8901707583807</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>768.8901707583807</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="43">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C45" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D45" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F45" t="n">
-        <v>159.1797258111137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>20.44890039372925</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>20.44890039372925</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7770,7 +7772,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7845,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>155.3219763666824</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10431,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11148,10 +11150,10 @@
         <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23315,10 +23317,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>32.74810900160186</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>147.4151786430149</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,13 +23828,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>123.0222126385783</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>88.97073592337523</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>169.3950043896394</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>179.2995387399617</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>101.40258158463</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24728,22 +24730,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>28.97248638636108</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>19.60223770515898</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>217.9708103590428</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>120.4592573625854</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>363.0059062769168</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25439,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>41.96199768387207</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>88.10426277371752</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>143.235546850668</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.50843922784961</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>64.20692916478961</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>85.42923474113493</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26010,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370781.472479136</v>
+        <v>370781.4724791358</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390537.1253937032</v>
+        <v>390537.1253937031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390537.1253937032</v>
+        <v>390537.1253937031</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370781.4724791357</v>
+        <v>370781.4724791358</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370781.4724791358</v>
+        <v>370781.4724791359</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="H2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="I2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375987</v>
-      </c>
-      <c r="L2" t="n">
-        <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
@@ -26350,10 +26352,10 @@
         <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
+        <v>189309.1702019179</v>
+      </c>
+      <c r="P2" t="n">
         <v>189309.170201918</v>
-      </c>
-      <c r="P2" t="n">
-        <v>189309.1702019179</v>
       </c>
     </row>
     <row r="3">
@@ -26427,16 +26429,16 @@
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
+        <v>8547.111069342403</v>
+      </c>
+      <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
-      <c r="H4" t="n">
-        <v>8547.111069342403</v>
-      </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26445,16 +26447,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725995</v>
@@ -26522,10 +26524,10 @@
         <v>80997.63842985863</v>
       </c>
       <c r="C6" t="n">
-        <v>149871.3950115487</v>
+        <v>149871.3950115484</v>
       </c>
       <c r="D6" t="n">
-        <v>149871.3950115485</v>
+        <v>149871.3950115486</v>
       </c>
       <c r="E6" t="n">
         <v>168720.9774423445</v>
@@ -26537,10 +26539,10 @@
         <v>166462.9842303276</v>
       </c>
       <c r="H6" t="n">
-        <v>176192.0272044947</v>
+        <v>176192.0272044946</v>
       </c>
       <c r="I6" t="n">
-        <v>176192.0272044947</v>
+        <v>176192.0272044946</v>
       </c>
       <c r="J6" t="n">
         <v>122419.5163142852</v>
@@ -26555,13 +26557,13 @@
         <v>176192.0272044947</v>
       </c>
       <c r="N6" t="n">
-        <v>176192.0272044947</v>
+        <v>176192.0272044946</v>
       </c>
       <c r="O6" t="n">
+        <v>168720.9774423445</v>
+      </c>
+      <c r="P6" t="n">
         <v>168720.9774423446</v>
-      </c>
-      <c r="P6" t="n">
-        <v>168720.9774423445</v>
       </c>
     </row>
   </sheetData>
@@ -27376,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.8559283604741</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>63.58384480062747</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>14.35739712209237</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>79.86556112423324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795084</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.6029128086029</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>212.3396231621795</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27707,16 +27709,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>79.3849337392314</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27758,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>5.336904604757279</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.25443990287962</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>372.7193592013314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>190.8509129149012</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>57.29271368040789</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,19 +27985,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>75.27168487819151</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>12.72573192223796</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.4947814597977008</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35182,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37151,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37868,10 +37870,10 @@
         <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288748.840655162</v>
+        <v>1219088.504980635</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6078935.950464636</v>
+        <v>6078935.950464635</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>140.5786793831186</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>75.03923572932271</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>136.9013455552335</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>149.7455191358052</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>200.4360805987202</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.1960350243786</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V8" t="n">
-        <v>136.9013455552337</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>90.15235188423087</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>155.1371722699136</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,14 +1369,14 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>67.40972515104127</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,44 +1621,44 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>9.211010870930398</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,61 +1849,61 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.234466016111838</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.583694061602047</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
     </row>
     <row r="21">
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.32130452463231</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>104.2801141926743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>104.2982137588222</v>
       </c>
       <c r="D30" t="n">
-        <v>118.4725791782777</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3040,11 +3040,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U33" t="n">
-        <v>7.970571721932049</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3189,70 +3189,70 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>85.57981622795299</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>124.5711859659953</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>169.0708280266249</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.6747228092714</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3918,43 +3918,43 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,70 +3979,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>192.3445302212503</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>176.8872195999018</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>176.8872195999018</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4339,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C3" t="n">
-        <v>345.09272902505</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D3" t="n">
-        <v>345.09272902505</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E3" t="n">
-        <v>345.09272902505</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F3" t="n">
-        <v>345.09272902505</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>206.3619036076655</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>92.99276801524483</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
         <v>16.44142755506243</v>
@@ -4533,7 +4533,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>238.4637496986098</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4570,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4591,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y5" t="n">
-        <v>466.1017926944764</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.3953532595989</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="C6" t="n">
-        <v>451.3953532595989</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="D6" t="n">
-        <v>302.4609435983476</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="E6" t="n">
-        <v>302.4609435983476</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F6" t="n">
-        <v>155.9263856252326</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H6" t="n">
         <v>17.19556020784815</v>
@@ -4652,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>497.3959330666136</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="X6" t="n">
-        <v>619.6106902796669</v>
+        <v>289.8021508057243</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.6106902796669</v>
+        <v>289.8021508057243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4807,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>672.8764276104736</v>
@@ -4828,16 +4828,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>396.792197863116</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="V8" t="n">
         <v>258.5080104335871</v>
@@ -4849,7 +4849,7 @@
         <v>258.5080104335871</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.91422817269779</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345.09272902505</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C9" t="n">
-        <v>345.09272902505</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D9" t="n">
-        <v>254.0297473238067</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>254.0297473238067</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>513.308066045118</v>
+        <v>665.3671633390675</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>732.290080796757</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>732.290080796757</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>732.290080796757</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>732.290080796757</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>732.290080796757</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C11" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D11" t="n">
         <v>199.2900309704538</v>
       </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5047,10 +5047,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5068,22 +5068,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
         <v>406.8838132313431</v>
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5123,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9807462874234</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>580.5634017380922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>580.5634017380922</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>372.969619477203</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>372.969619477203</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>165.3758372163137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5235,16 +5235,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5293,37 +5293,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5606,7 +5606,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>955.386757468614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>30.58726043968704</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>30.58726043968704</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>30.58726043968704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0215048700907</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.2071172886402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2071172886402</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,22 +6171,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>879.1508727409195</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,7 +6414,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>313.4034442885899</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C30" t="n">
-        <v>138.9504150074629</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>481.618781308658</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.618781308658</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U33" t="n">
-        <v>479.2326043255507</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>479.2326043255507</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>479.2326043255507</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7113,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7393,16 +7393,16 @@
         <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F41" t="n">
         <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
         <v>28.51141680214578</v>
@@ -7444,10 +7444,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>443.6989813239244</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
         <v>443.6989813239244</v>
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70.6583192815992</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>446.4674385625565</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>446.4674385625565</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>446.4674385625565</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>446.4674385625565</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
         <v>16.44142755506243</v>
@@ -7602,19 +7602,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
         <v>16.44142755506243</v>
@@ -7654,7 +7654,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>469.413761616576</v>
@@ -7684,16 +7684,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7730,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8227,7 +8227,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,7 +8464,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9254,10 +9254,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11387,13 +11387,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.74810900160186</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,13 +23396,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,7 +23500,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6629242394455</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>406.0917266442046</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,25 +23737,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>197.0990017157023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>153.4048529199032</v>
       </c>
     </row>
     <row r="21">
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>123.0222126385783</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.70178455167252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>16.10061421062353</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>101.40258158463</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>68.4102852294935</v>
       </c>
       <c r="D30" t="n">
-        <v>28.97248638636108</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24928,10 +24928,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25010,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U33" t="n">
-        <v>217.9708103590428</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,7 +25159,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>333.4992862499586</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25204,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>80.95336742191435</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>153.0645313606844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>363.0059062769168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41.96199768387207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25684,13 +25684,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>158.68143044351</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>119.0337761790443</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25924,13 +25924,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>64.20692916478961</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370781.4724791358</v>
+        <v>370781.4724791357</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390537.1253937032</v>
+        <v>390537.1253937031</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390537.1253937032</v>
+        <v>390537.1253937031</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390537.1253937031</v>
+        <v>390537.1253937032</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390537.1253937031</v>
+        <v>390537.1253937032</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370781.4724791358</v>
+        <v>370781.4724791357</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370781.4724791359</v>
+        <v>370781.4724791358</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
@@ -26328,22 +26328,22 @@
         <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="I2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="L2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375987</v>
@@ -26352,10 +26352,10 @@
         <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
+        <v>189309.170201918</v>
+      </c>
+      <c r="P2" t="n">
         <v>189309.1702019179</v>
-      </c>
-      <c r="P2" t="n">
-        <v>189309.170201918</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26459,7 +26459,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>80997.63842985863</v>
       </c>
       <c r="C6" t="n">
-        <v>149871.3950115484</v>
+        <v>149871.3950115487</v>
       </c>
       <c r="D6" t="n">
-        <v>149871.3950115486</v>
+        <v>149871.3950115487</v>
       </c>
       <c r="E6" t="n">
-        <v>168720.9774423445</v>
+        <v>156082.815287484</v>
       </c>
       <c r="F6" t="n">
-        <v>168720.9774423445</v>
+        <v>156082.815287484</v>
       </c>
       <c r="G6" t="n">
-        <v>166462.9842303276</v>
+        <v>154244.9736102871</v>
       </c>
       <c r="H6" t="n">
-        <v>176192.0272044946</v>
+        <v>163974.0165844542</v>
       </c>
       <c r="I6" t="n">
-        <v>176192.0272044946</v>
+        <v>163974.0165844542</v>
       </c>
       <c r="J6" t="n">
-        <v>122419.5163142852</v>
+        <v>110201.5056942448</v>
       </c>
       <c r="K6" t="n">
-        <v>176192.0272044947</v>
+        <v>163974.0165844542</v>
       </c>
       <c r="L6" t="n">
-        <v>176192.0272044947</v>
+        <v>163974.0165844543</v>
       </c>
       <c r="M6" t="n">
-        <v>176192.0272044947</v>
+        <v>163974.0165844542</v>
       </c>
       <c r="N6" t="n">
-        <v>176192.0272044946</v>
+        <v>163974.0165844542</v>
       </c>
       <c r="O6" t="n">
-        <v>168720.9774423445</v>
+        <v>156082.815287484</v>
       </c>
       <c r="P6" t="n">
-        <v>168720.9774423446</v>
+        <v>156082.815287484</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>63.58384480062747</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>156.6908966650487</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>6.866386181520113</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14.35739712209237</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>18.14994616795084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>17.92581751804161</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>212.3396231621795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27745,13 +27745,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>50.41920955901645</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>5.336904604757279</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>47.25443990287962</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277162</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,10 +27909,10 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>58.79558085547222</v>
       </c>
       <c r="V8" t="n">
-        <v>190.8509129149012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>57.29271368040789</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>50.54552350739075</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34707,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34947,7 +34947,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35184,7 +35184,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38107,13 +38107,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>197.2140931478448</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
